--- a/MySmartLocker.xlsx
+++ b/MySmartLocker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saaamar\source\repos\MySmartLock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB0D7B9-1D42-4582-8CD6-4E5256FDDDE9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1FABBE-68F8-4657-A99F-F598F326008A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-10870" windowWidth="38620" windowHeight="21220" xr2:uid="{332520F4-A6D1-49F8-BAAA-23A5BE170209}"/>
   </bookViews>
@@ -487,7 +487,7 @@
   <dimension ref="A2:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,12 +591,12 @@
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N6" ca="1" si="1">J4+K4+M4+$Q$10</f>
-        <v>2021619522</v>
+        <v>2025170868</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="4">
-        <f t="shared" ref="Q4:Q7" ca="1" si="2">MOD(N4,$B$2)</f>
-        <v>8346052</v>
+        <f t="shared" ref="Q4" ca="1" si="2">MOD(N4,$B$2)</f>
+        <v>11897398</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -649,12 +649,12 @@
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="1"/>
-        <v>2033283521</v>
+        <v>2036834867</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="4">
         <f ca="1">MOD(N5,$B$2)</f>
-        <v>4523332</v>
+        <v>8074678</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -707,12 +707,12 @@
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="1"/>
-        <v>2020803522</v>
+        <v>2024354868</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="4">
         <f t="shared" ref="Q6:Q7" ca="1" si="8">MOD(N6,$B$2)</f>
-        <v>7530052</v>
+        <v>11081398</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -765,12 +765,12 @@
       </c>
       <c r="N7">
         <f ca="1">J7+K7+M7+$Q$10</f>
-        <v>2032804801</v>
+        <v>2036356147</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4044612</v>
+        <v>7595958</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -781,7 +781,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q10" s="5">
         <f ca="1">RANDBETWEEN(1, $B$2)</f>
-        <v>1772390</v>
+        <v>5323736</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">

--- a/MySmartLocker.xlsx
+++ b/MySmartLocker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saaamar\source\repos\MySmartLock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1FABBE-68F8-4657-A99F-F598F326008A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C8E824-3DFE-4E56-BEB5-9DB62403C352}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-10870" windowWidth="38620" windowHeight="21220" xr2:uid="{332520F4-A6D1-49F8-BAAA-23A5BE170209}"/>
+    <workbookView xWindow="54390" yWindow="7920" windowWidth="28800" windowHeight="13545" xr2:uid="{332520F4-A6D1-49F8-BAAA-23A5BE170209}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -487,7 +490,7 @@
   <dimension ref="A2:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +586,7 @@
       </c>
       <c r="K4" t="str">
         <f ca="1" xml:space="preserve"> TEXT(NOW(),"yyyymmddhh")</f>
-        <v>2019030807</v>
+        <v>2020092707</v>
       </c>
       <c r="M4" t="str">
         <f ca="1">CONCATENATE(C4,D4,E4,F4,G4,H4,I4)</f>
@@ -591,12 +594,12 @@
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N6" ca="1" si="1">J4+K4+M4+$Q$10</f>
-        <v>2025170868</v>
+        <v>2030456487</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="4">
         <f t="shared" ref="Q4" ca="1" si="2">MOD(N4,$B$2)</f>
-        <v>11897398</v>
+        <v>1696298</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -641,7 +644,7 @@
       </c>
       <c r="K5" t="str">
         <f t="shared" ref="K5:K7" ca="1" si="7" xml:space="preserve"> TEXT(NOW(),"yyyymmddhh")</f>
-        <v>2019030807</v>
+        <v>2020092707</v>
       </c>
       <c r="M5" t="str">
         <f ca="1">CONCATENATE(C5,D5,E5,F5,G5,H5,I5)</f>
@@ -649,12 +652,12 @@
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="1"/>
-        <v>2036834867</v>
+        <v>2042120486</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="4">
         <f ca="1">MOD(N5,$B$2)</f>
-        <v>8074678</v>
+        <v>13360297</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -699,7 +702,7 @@
       </c>
       <c r="K6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2019030807</v>
+        <v>2020092707</v>
       </c>
       <c r="M6" t="str">
         <f ca="1">CONCATENATE(C6,D6,E6,F6,G6,H6,I6)</f>
@@ -707,12 +710,12 @@
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="1"/>
-        <v>2024354868</v>
+        <v>2029640487</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="4">
         <f t="shared" ref="Q6:Q7" ca="1" si="8">MOD(N6,$B$2)</f>
-        <v>11081398</v>
+        <v>880298</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -757,7 +760,7 @@
       </c>
       <c r="K7" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2019030807</v>
+        <v>2020092707</v>
       </c>
       <c r="M7" t="str">
         <f ca="1">CONCATENATE(C7,D7,E7,F7,G7,H7,I7)</f>
@@ -765,12 +768,12 @@
       </c>
       <c r="N7">
         <f ca="1">J7+K7+M7+$Q$10</f>
-        <v>2036356147</v>
+        <v>2041641766</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>7595958</v>
+        <v>12881577</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -781,7 +784,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q10" s="5">
         <f ca="1">RANDBETWEEN(1, $B$2)</f>
-        <v>5323736</v>
+        <v>9547455</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -868,7 +871,7 @@
       </c>
       <c r="K14" t="str">
         <f ca="1" xml:space="preserve"> TEXT(NOW(),"yyyymmddhh")</f>
-        <v>2019030807</v>
+        <v>2020092707</v>
       </c>
       <c r="M14" t="str">
         <f ca="1">CONCATENATE(C14,D14,E14,F14,G14,H14,I14)</f>
@@ -876,11 +879,11 @@
       </c>
       <c r="O14" s="2">
         <f ca="1">M14+K14+J14</f>
-        <v>2019847132</v>
+        <v>2020909032</v>
       </c>
       <c r="Q14" s="5">
         <f ca="1">MOD(O14,$B$2)</f>
-        <v>6573662</v>
+        <v>7635562</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -925,7 +928,7 @@
       </c>
       <c r="K15" t="str">
         <f t="shared" ref="K15:K17" ca="1" si="12" xml:space="preserve"> TEXT(NOW(),"yyyymmddhh")</f>
-        <v>2019030807</v>
+        <v>2020092707</v>
       </c>
       <c r="M15" t="str">
         <f ca="1">CONCATENATE(C15,D15,E15,F15,G15,H15,I15)</f>
@@ -934,11 +937,11 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2">
         <f t="shared" ref="O15:O17" ca="1" si="13">M15+K15+J15</f>
-        <v>2031511131</v>
+        <v>2032573031</v>
       </c>
       <c r="Q15" s="5">
         <f ca="1">MOD(O15,$B$2)</f>
-        <v>2750942</v>
+        <v>3812842</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -983,7 +986,7 @@
       </c>
       <c r="K16" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2019030807</v>
+        <v>2020092707</v>
       </c>
       <c r="M16" t="str">
         <f ca="1">CONCATENATE(C16,D16,E16,F16,G16,H16,I16)</f>
@@ -991,11 +994,11 @@
       </c>
       <c r="O16" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>2019031132</v>
+        <v>2020093032</v>
       </c>
       <c r="Q16" s="5">
         <f ca="1">MOD(O16,$B$2)</f>
-        <v>5757662</v>
+        <v>6819562</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1040,7 +1043,7 @@
       </c>
       <c r="K17" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2019030807</v>
+        <v>2020092707</v>
       </c>
       <c r="M17" t="str">
         <f ca="1">CONCATENATE(C17,D17,E17,F17,G17,H17,I17)</f>
@@ -1048,11 +1051,11 @@
       </c>
       <c r="O17" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>2031032411</v>
+        <v>2032094311</v>
       </c>
       <c r="Q17" s="5">
         <f ca="1">MOD(O17,$B$2)</f>
-        <v>2272222</v>
+        <v>3334122</v>
       </c>
     </row>
   </sheetData>
